--- a/doc/提取模板 - 副本.xlsx
+++ b/doc/提取模板 - 副本.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>是否网络类</t>
   </si>
@@ -160,29 +160,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>007002002003002002011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007002002003002002012</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>007002002003002002013</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0149</t>
-  </si>
-  <si>
-    <t>0149</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>政企公司</t>
-  </si>
-  <si>
-    <t>一级SIMS平台</t>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -646,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -811,7 +797,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -823,21 +809,10 @@
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:F501 P2:P501">
       <formula1>"是,否"</formula1>
     </dataValidation>
